--- a/src/resources/excelTest.xlsx
+++ b/src/resources/excelTest.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="2">
   <si>
     <t>Excel16!</t>
   </si>
@@ -396,12 +396,12 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/src/resources/excelTest.xlsx
+++ b/src/resources/excelTest.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="2">
   <si>
     <t>Excel16!</t>
   </si>
@@ -396,12 +396,12 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/src/resources/excelTest.xlsx
+++ b/src/resources/excelTest.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="2">
   <si>
     <t>Excel16!</t>
   </si>

--- a/src/resources/excelTest.xlsx
+++ b/src/resources/excelTest.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="2">
   <si>
     <t>Excel16!</t>
   </si>

--- a/src/resources/excelTest.xlsx
+++ b/src/resources/excelTest.xlsx
@@ -1,11 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25915"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CD7B0F48-EDF1-4D52-B364-B7629EA497F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <mc:AlternateContent>
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cevik\IdeaProjects\projectMedunna\src\resources\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77B41112-9B62-433A-A3AF-EB6BC8845390}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sayfa1" sheetId="1" r:id="rId1"/>
@@ -28,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="2">
   <si>
     <t>Excel16!</t>
   </si>
@@ -41,7 +46,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -388,20 +393,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/src/resources/excelTest.xlsx
+++ b/src/resources/excelTest.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="2">
   <si>
     <t>Excel16!</t>
   </si>
@@ -399,12 +399,12 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/src/resources/excelTest.xlsx
+++ b/src/resources/excelTest.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="2">
   <si>
     <t>Excel16!</t>
   </si>
@@ -399,12 +399,12 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/src/resources/excelTest.xlsx
+++ b/src/resources/excelTest.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="2">
   <si>
     <t>Excel16!</t>
   </si>
@@ -399,12 +399,12 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/src/resources/excelTest.xlsx
+++ b/src/resources/excelTest.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="2">
   <si>
     <t>Excel16!</t>
   </si>
@@ -399,12 +399,12 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/src/resources/excelTest.xlsx
+++ b/src/resources/excelTest.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="2">
   <si>
     <t>Excel16!</t>
   </si>
@@ -399,12 +399,12 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/src/resources/excelTest.xlsx
+++ b/src/resources/excelTest.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="2">
   <si>
     <t>Excel16!</t>
   </si>
@@ -399,12 +399,12 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/src/resources/excelTest.xlsx
+++ b/src/resources/excelTest.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="2">
   <si>
     <t>Excel16!</t>
   </si>
